--- a/v3dot0/Replic/Uhlig2005/Uhlig2005_Data.xlsx
+++ b/v3dot0/Replic/Uhlig2005/Uhlig2005_Data.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\321471\Desktop\VAR-Toolbox\Manual\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jambro/Google Drive/VAR-Toolbox Manual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3508FD38-9088-1D44-BD7A-F2DBF2B0E9AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32772" yWindow="456" windowWidth="28800" windowHeight="16620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
   <si>
     <t>Real GDP</t>
   </si>
@@ -91,14 +92,1381 @@
   </si>
   <si>
     <t>1976m12</t>
+  </si>
+  <si>
+    <t>1965m2</t>
+  </si>
+  <si>
+    <t>1965m3</t>
+  </si>
+  <si>
+    <t>1965m4</t>
+  </si>
+  <si>
+    <t>1965m5</t>
+  </si>
+  <si>
+    <t>1965m6</t>
+  </si>
+  <si>
+    <t>1965m7</t>
+  </si>
+  <si>
+    <t>1965m8</t>
+  </si>
+  <si>
+    <t>1965m9</t>
+  </si>
+  <si>
+    <t>1965m10</t>
+  </si>
+  <si>
+    <t>1965m11</t>
+  </si>
+  <si>
+    <t>1965m12</t>
+  </si>
+  <si>
+    <t>1966m1</t>
+  </si>
+  <si>
+    <t>1966m3</t>
+  </si>
+  <si>
+    <t>1966m4</t>
+  </si>
+  <si>
+    <t>1966m5</t>
+  </si>
+  <si>
+    <t>1966m6</t>
+  </si>
+  <si>
+    <t>1966m7</t>
+  </si>
+  <si>
+    <t>1966m8</t>
+  </si>
+  <si>
+    <t>1966m9</t>
+  </si>
+  <si>
+    <t>1966m10</t>
+  </si>
+  <si>
+    <t>1966m11</t>
+  </si>
+  <si>
+    <t>1966m12</t>
+  </si>
+  <si>
+    <t>1967m1</t>
+  </si>
+  <si>
+    <t>1967m2</t>
+  </si>
+  <si>
+    <t>1967m4</t>
+  </si>
+  <si>
+    <t>1967m5</t>
+  </si>
+  <si>
+    <t>1967m6</t>
+  </si>
+  <si>
+    <t>1967m7</t>
+  </si>
+  <si>
+    <t>1967m8</t>
+  </si>
+  <si>
+    <t>1967m9</t>
+  </si>
+  <si>
+    <t>1967m10</t>
+  </si>
+  <si>
+    <t>1967m11</t>
+  </si>
+  <si>
+    <t>1967m12</t>
+  </si>
+  <si>
+    <t>1968m1</t>
+  </si>
+  <si>
+    <t>1968m2</t>
+  </si>
+  <si>
+    <t>1968m3</t>
+  </si>
+  <si>
+    <t>1968m5</t>
+  </si>
+  <si>
+    <t>1968m6</t>
+  </si>
+  <si>
+    <t>1968m7</t>
+  </si>
+  <si>
+    <t>1968m8</t>
+  </si>
+  <si>
+    <t>1968m9</t>
+  </si>
+  <si>
+    <t>1968m10</t>
+  </si>
+  <si>
+    <t>1968m11</t>
+  </si>
+  <si>
+    <t>1968m12</t>
+  </si>
+  <si>
+    <t>1969m1</t>
+  </si>
+  <si>
+    <t>1969m2</t>
+  </si>
+  <si>
+    <t>1969m3</t>
+  </si>
+  <si>
+    <t>1969m4</t>
+  </si>
+  <si>
+    <t>1969m6</t>
+  </si>
+  <si>
+    <t>1969m7</t>
+  </si>
+  <si>
+    <t>1969m8</t>
+  </si>
+  <si>
+    <t>1969m9</t>
+  </si>
+  <si>
+    <t>1969m10</t>
+  </si>
+  <si>
+    <t>1969m11</t>
+  </si>
+  <si>
+    <t>1969m12</t>
+  </si>
+  <si>
+    <t>1970m1</t>
+  </si>
+  <si>
+    <t>1970m2</t>
+  </si>
+  <si>
+    <t>1970m3</t>
+  </si>
+  <si>
+    <t>1970m4</t>
+  </si>
+  <si>
+    <t>1970m5</t>
+  </si>
+  <si>
+    <t>1970m7</t>
+  </si>
+  <si>
+    <t>1970m8</t>
+  </si>
+  <si>
+    <t>1970m9</t>
+  </si>
+  <si>
+    <t>1970m10</t>
+  </si>
+  <si>
+    <t>1970m11</t>
+  </si>
+  <si>
+    <t>1970m12</t>
+  </si>
+  <si>
+    <t>1971m1</t>
+  </si>
+  <si>
+    <t>1971m2</t>
+  </si>
+  <si>
+    <t>1971m3</t>
+  </si>
+  <si>
+    <t>1971m4</t>
+  </si>
+  <si>
+    <t>1971m5</t>
+  </si>
+  <si>
+    <t>1971m6</t>
+  </si>
+  <si>
+    <t>1971m8</t>
+  </si>
+  <si>
+    <t>1971m9</t>
+  </si>
+  <si>
+    <t>1971m10</t>
+  </si>
+  <si>
+    <t>1971m11</t>
+  </si>
+  <si>
+    <t>1971m12</t>
+  </si>
+  <si>
+    <t>1972m1</t>
+  </si>
+  <si>
+    <t>1972m2</t>
+  </si>
+  <si>
+    <t>1972m3</t>
+  </si>
+  <si>
+    <t>1972m4</t>
+  </si>
+  <si>
+    <t>1972m5</t>
+  </si>
+  <si>
+    <t>1972m6</t>
+  </si>
+  <si>
+    <t>1972m7</t>
+  </si>
+  <si>
+    <t>1972m9</t>
+  </si>
+  <si>
+    <t>1972m10</t>
+  </si>
+  <si>
+    <t>1972m11</t>
+  </si>
+  <si>
+    <t>1972m12</t>
+  </si>
+  <si>
+    <t>1973m1</t>
+  </si>
+  <si>
+    <t>1973m2</t>
+  </si>
+  <si>
+    <t>1973m3</t>
+  </si>
+  <si>
+    <t>1973m4</t>
+  </si>
+  <si>
+    <t>1973m5</t>
+  </si>
+  <si>
+    <t>1973m6</t>
+  </si>
+  <si>
+    <t>1973m7</t>
+  </si>
+  <si>
+    <t>1973m8</t>
+  </si>
+  <si>
+    <t>1973m10</t>
+  </si>
+  <si>
+    <t>1973m11</t>
+  </si>
+  <si>
+    <t>1973m12</t>
+  </si>
+  <si>
+    <t>1974m1</t>
+  </si>
+  <si>
+    <t>1974m2</t>
+  </si>
+  <si>
+    <t>1974m3</t>
+  </si>
+  <si>
+    <t>1974m4</t>
+  </si>
+  <si>
+    <t>1974m5</t>
+  </si>
+  <si>
+    <t>1974m6</t>
+  </si>
+  <si>
+    <t>1974m7</t>
+  </si>
+  <si>
+    <t>1974m8</t>
+  </si>
+  <si>
+    <t>1974m9</t>
+  </si>
+  <si>
+    <t>1974m11</t>
+  </si>
+  <si>
+    <t>1974m12</t>
+  </si>
+  <si>
+    <t>1975m1</t>
+  </si>
+  <si>
+    <t>1975m2</t>
+  </si>
+  <si>
+    <t>1975m3</t>
+  </si>
+  <si>
+    <t>1975m4</t>
+  </si>
+  <si>
+    <t>1975m5</t>
+  </si>
+  <si>
+    <t>1975m6</t>
+  </si>
+  <si>
+    <t>1975m7</t>
+  </si>
+  <si>
+    <t>1975m8</t>
+  </si>
+  <si>
+    <t>1975m9</t>
+  </si>
+  <si>
+    <t>1975m10</t>
+  </si>
+  <si>
+    <t>1975m12</t>
+  </si>
+  <si>
+    <t>1976m1</t>
+  </si>
+  <si>
+    <t>1976m2</t>
+  </si>
+  <si>
+    <t>1976m3</t>
+  </si>
+  <si>
+    <t>1976m4</t>
+  </si>
+  <si>
+    <t>1976m5</t>
+  </si>
+  <si>
+    <t>1976m6</t>
+  </si>
+  <si>
+    <t>1976m7</t>
+  </si>
+  <si>
+    <t>1976m8</t>
+  </si>
+  <si>
+    <t>1976m9</t>
+  </si>
+  <si>
+    <t>1976m10</t>
+  </si>
+  <si>
+    <t>1976m11</t>
+  </si>
+  <si>
+    <t>1977m1</t>
+  </si>
+  <si>
+    <t>1977m2</t>
+  </si>
+  <si>
+    <t>1977m3</t>
+  </si>
+  <si>
+    <t>1977m4</t>
+  </si>
+  <si>
+    <t>1977m5</t>
+  </si>
+  <si>
+    <t>1977m6</t>
+  </si>
+  <si>
+    <t>1977m7</t>
+  </si>
+  <si>
+    <t>1977m8</t>
+  </si>
+  <si>
+    <t>1977m9</t>
+  </si>
+  <si>
+    <t>1977m10</t>
+  </si>
+  <si>
+    <t>1977m11</t>
+  </si>
+  <si>
+    <t>1977m12</t>
+  </si>
+  <si>
+    <t>1978m1</t>
+  </si>
+  <si>
+    <t>1978m2</t>
+  </si>
+  <si>
+    <t>1978m3</t>
+  </si>
+  <si>
+    <t>1978m4</t>
+  </si>
+  <si>
+    <t>1978m5</t>
+  </si>
+  <si>
+    <t>1978m6</t>
+  </si>
+  <si>
+    <t>1978m7</t>
+  </si>
+  <si>
+    <t>1978m8</t>
+  </si>
+  <si>
+    <t>1978m9</t>
+  </si>
+  <si>
+    <t>1978m10</t>
+  </si>
+  <si>
+    <t>1978m11</t>
+  </si>
+  <si>
+    <t>1978m12</t>
+  </si>
+  <si>
+    <t>1979m1</t>
+  </si>
+  <si>
+    <t>1979m2</t>
+  </si>
+  <si>
+    <t>1979m3</t>
+  </si>
+  <si>
+    <t>1979m4</t>
+  </si>
+  <si>
+    <t>1979m5</t>
+  </si>
+  <si>
+    <t>1979m6</t>
+  </si>
+  <si>
+    <t>1979m7</t>
+  </si>
+  <si>
+    <t>1979m8</t>
+  </si>
+  <si>
+    <t>1979m9</t>
+  </si>
+  <si>
+    <t>1979m10</t>
+  </si>
+  <si>
+    <t>1979m11</t>
+  </si>
+  <si>
+    <t>1979m12</t>
+  </si>
+  <si>
+    <t>1980m1</t>
+  </si>
+  <si>
+    <t>1980m2</t>
+  </si>
+  <si>
+    <t>1980m3</t>
+  </si>
+  <si>
+    <t>1980m4</t>
+  </si>
+  <si>
+    <t>1980m5</t>
+  </si>
+  <si>
+    <t>1980m6</t>
+  </si>
+  <si>
+    <t>1980m7</t>
+  </si>
+  <si>
+    <t>1980m8</t>
+  </si>
+  <si>
+    <t>1980m9</t>
+  </si>
+  <si>
+    <t>1980m10</t>
+  </si>
+  <si>
+    <t>1980m11</t>
+  </si>
+  <si>
+    <t>1980m12</t>
+  </si>
+  <si>
+    <t>1981m1</t>
+  </si>
+  <si>
+    <t>1981m2</t>
+  </si>
+  <si>
+    <t>1981m3</t>
+  </si>
+  <si>
+    <t>1981m4</t>
+  </si>
+  <si>
+    <t>1981m5</t>
+  </si>
+  <si>
+    <t>1981m6</t>
+  </si>
+  <si>
+    <t>1981m7</t>
+  </si>
+  <si>
+    <t>1981m8</t>
+  </si>
+  <si>
+    <t>1981m9</t>
+  </si>
+  <si>
+    <t>1981m10</t>
+  </si>
+  <si>
+    <t>1981m11</t>
+  </si>
+  <si>
+    <t>1981m12</t>
+  </si>
+  <si>
+    <t>1982m1</t>
+  </si>
+  <si>
+    <t>1982m2</t>
+  </si>
+  <si>
+    <t>1982m3</t>
+  </si>
+  <si>
+    <t>1982m4</t>
+  </si>
+  <si>
+    <t>1982m5</t>
+  </si>
+  <si>
+    <t>1982m6</t>
+  </si>
+  <si>
+    <t>1982m7</t>
+  </si>
+  <si>
+    <t>1982m8</t>
+  </si>
+  <si>
+    <t>1982m9</t>
+  </si>
+  <si>
+    <t>1982m10</t>
+  </si>
+  <si>
+    <t>1982m11</t>
+  </si>
+  <si>
+    <t>1982m12</t>
+  </si>
+  <si>
+    <t>1983m1</t>
+  </si>
+  <si>
+    <t>1983m2</t>
+  </si>
+  <si>
+    <t>1983m3</t>
+  </si>
+  <si>
+    <t>1983m4</t>
+  </si>
+  <si>
+    <t>1983m5</t>
+  </si>
+  <si>
+    <t>1983m6</t>
+  </si>
+  <si>
+    <t>1983m7</t>
+  </si>
+  <si>
+    <t>1983m8</t>
+  </si>
+  <si>
+    <t>1983m9</t>
+  </si>
+  <si>
+    <t>1983m10</t>
+  </si>
+  <si>
+    <t>1983m11</t>
+  </si>
+  <si>
+    <t>1983m12</t>
+  </si>
+  <si>
+    <t>1984m1</t>
+  </si>
+  <si>
+    <t>1984m2</t>
+  </si>
+  <si>
+    <t>1984m3</t>
+  </si>
+  <si>
+    <t>1984m4</t>
+  </si>
+  <si>
+    <t>1984m5</t>
+  </si>
+  <si>
+    <t>1984m6</t>
+  </si>
+  <si>
+    <t>1984m7</t>
+  </si>
+  <si>
+    <t>1984m8</t>
+  </si>
+  <si>
+    <t>1984m9</t>
+  </si>
+  <si>
+    <t>1984m10</t>
+  </si>
+  <si>
+    <t>1984m11</t>
+  </si>
+  <si>
+    <t>1984m12</t>
+  </si>
+  <si>
+    <t>1985m1</t>
+  </si>
+  <si>
+    <t>1985m2</t>
+  </si>
+  <si>
+    <t>1985m3</t>
+  </si>
+  <si>
+    <t>1985m4</t>
+  </si>
+  <si>
+    <t>1985m5</t>
+  </si>
+  <si>
+    <t>1985m6</t>
+  </si>
+  <si>
+    <t>1985m7</t>
+  </si>
+  <si>
+    <t>1985m8</t>
+  </si>
+  <si>
+    <t>1985m9</t>
+  </si>
+  <si>
+    <t>1985m10</t>
+  </si>
+  <si>
+    <t>1985m11</t>
+  </si>
+  <si>
+    <t>1985m12</t>
+  </si>
+  <si>
+    <t>1986m1</t>
+  </si>
+  <si>
+    <t>1986m2</t>
+  </si>
+  <si>
+    <t>1986m3</t>
+  </si>
+  <si>
+    <t>1986m4</t>
+  </si>
+  <si>
+    <t>1986m5</t>
+  </si>
+  <si>
+    <t>1986m6</t>
+  </si>
+  <si>
+    <t>1986m7</t>
+  </si>
+  <si>
+    <t>1986m8</t>
+  </si>
+  <si>
+    <t>1986m9</t>
+  </si>
+  <si>
+    <t>1986m10</t>
+  </si>
+  <si>
+    <t>1986m11</t>
+  </si>
+  <si>
+    <t>1986m12</t>
+  </si>
+  <si>
+    <t>1987m1</t>
+  </si>
+  <si>
+    <t>1987m2</t>
+  </si>
+  <si>
+    <t>1987m3</t>
+  </si>
+  <si>
+    <t>1987m4</t>
+  </si>
+  <si>
+    <t>1987m5</t>
+  </si>
+  <si>
+    <t>1987m6</t>
+  </si>
+  <si>
+    <t>1987m7</t>
+  </si>
+  <si>
+    <t>1987m8</t>
+  </si>
+  <si>
+    <t>1987m9</t>
+  </si>
+  <si>
+    <t>1987m10</t>
+  </si>
+  <si>
+    <t>1987m11</t>
+  </si>
+  <si>
+    <t>1987m12</t>
+  </si>
+  <si>
+    <t>1988m1</t>
+  </si>
+  <si>
+    <t>1988m2</t>
+  </si>
+  <si>
+    <t>1988m3</t>
+  </si>
+  <si>
+    <t>1988m4</t>
+  </si>
+  <si>
+    <t>1988m5</t>
+  </si>
+  <si>
+    <t>1988m6</t>
+  </si>
+  <si>
+    <t>1988m7</t>
+  </si>
+  <si>
+    <t>1988m8</t>
+  </si>
+  <si>
+    <t>1988m9</t>
+  </si>
+  <si>
+    <t>1988m10</t>
+  </si>
+  <si>
+    <t>1988m11</t>
+  </si>
+  <si>
+    <t>1988m12</t>
+  </si>
+  <si>
+    <t>1989m1</t>
+  </si>
+  <si>
+    <t>1989m2</t>
+  </si>
+  <si>
+    <t>1989m3</t>
+  </si>
+  <si>
+    <t>1989m4</t>
+  </si>
+  <si>
+    <t>1989m5</t>
+  </si>
+  <si>
+    <t>1989m6</t>
+  </si>
+  <si>
+    <t>1989m7</t>
+  </si>
+  <si>
+    <t>1989m8</t>
+  </si>
+  <si>
+    <t>1989m9</t>
+  </si>
+  <si>
+    <t>1989m10</t>
+  </si>
+  <si>
+    <t>1989m11</t>
+  </si>
+  <si>
+    <t>1989m12</t>
+  </si>
+  <si>
+    <t>1990m1</t>
+  </si>
+  <si>
+    <t>1990m2</t>
+  </si>
+  <si>
+    <t>1990m3</t>
+  </si>
+  <si>
+    <t>1990m4</t>
+  </si>
+  <si>
+    <t>1990m5</t>
+  </si>
+  <si>
+    <t>1990m6</t>
+  </si>
+  <si>
+    <t>1990m7</t>
+  </si>
+  <si>
+    <t>1990m8</t>
+  </si>
+  <si>
+    <t>1990m9</t>
+  </si>
+  <si>
+    <t>1990m10</t>
+  </si>
+  <si>
+    <t>1990m11</t>
+  </si>
+  <si>
+    <t>1990m12</t>
+  </si>
+  <si>
+    <t>1991m1</t>
+  </si>
+  <si>
+    <t>1991m2</t>
+  </si>
+  <si>
+    <t>1991m3</t>
+  </si>
+  <si>
+    <t>1991m4</t>
+  </si>
+  <si>
+    <t>1991m5</t>
+  </si>
+  <si>
+    <t>1991m6</t>
+  </si>
+  <si>
+    <t>1991m7</t>
+  </si>
+  <si>
+    <t>1991m8</t>
+  </si>
+  <si>
+    <t>1991m9</t>
+  </si>
+  <si>
+    <t>1991m10</t>
+  </si>
+  <si>
+    <t>1991m11</t>
+  </si>
+  <si>
+    <t>1991m12</t>
+  </si>
+  <si>
+    <t>1992m1</t>
+  </si>
+  <si>
+    <t>1992m2</t>
+  </si>
+  <si>
+    <t>1992m3</t>
+  </si>
+  <si>
+    <t>1992m4</t>
+  </si>
+  <si>
+    <t>1992m5</t>
+  </si>
+  <si>
+    <t>1992m6</t>
+  </si>
+  <si>
+    <t>1992m7</t>
+  </si>
+  <si>
+    <t>1992m8</t>
+  </si>
+  <si>
+    <t>1992m9</t>
+  </si>
+  <si>
+    <t>1992m10</t>
+  </si>
+  <si>
+    <t>1992m11</t>
+  </si>
+  <si>
+    <t>1992m12</t>
+  </si>
+  <si>
+    <t>1993m1</t>
+  </si>
+  <si>
+    <t>1993m2</t>
+  </si>
+  <si>
+    <t>1993m3</t>
+  </si>
+  <si>
+    <t>1993m4</t>
+  </si>
+  <si>
+    <t>1993m5</t>
+  </si>
+  <si>
+    <t>1993m6</t>
+  </si>
+  <si>
+    <t>1993m7</t>
+  </si>
+  <si>
+    <t>1993m8</t>
+  </si>
+  <si>
+    <t>1993m9</t>
+  </si>
+  <si>
+    <t>1993m10</t>
+  </si>
+  <si>
+    <t>1993m11</t>
+  </si>
+  <si>
+    <t>1993m12</t>
+  </si>
+  <si>
+    <t>1994m1</t>
+  </si>
+  <si>
+    <t>1994m2</t>
+  </si>
+  <si>
+    <t>1994m3</t>
+  </si>
+  <si>
+    <t>1994m4</t>
+  </si>
+  <si>
+    <t>1994m5</t>
+  </si>
+  <si>
+    <t>1994m6</t>
+  </si>
+  <si>
+    <t>1994m7</t>
+  </si>
+  <si>
+    <t>1994m8</t>
+  </si>
+  <si>
+    <t>1994m9</t>
+  </si>
+  <si>
+    <t>1994m10</t>
+  </si>
+  <si>
+    <t>1994m11</t>
+  </si>
+  <si>
+    <t>1994m12</t>
+  </si>
+  <si>
+    <t>1995m1</t>
+  </si>
+  <si>
+    <t>1995m2</t>
+  </si>
+  <si>
+    <t>1995m3</t>
+  </si>
+  <si>
+    <t>1995m4</t>
+  </si>
+  <si>
+    <t>1995m5</t>
+  </si>
+  <si>
+    <t>1995m6</t>
+  </si>
+  <si>
+    <t>1995m7</t>
+  </si>
+  <si>
+    <t>1995m8</t>
+  </si>
+  <si>
+    <t>1995m9</t>
+  </si>
+  <si>
+    <t>1995m10</t>
+  </si>
+  <si>
+    <t>1995m11</t>
+  </si>
+  <si>
+    <t>1995m12</t>
+  </si>
+  <si>
+    <t>1996m1</t>
+  </si>
+  <si>
+    <t>1996m2</t>
+  </si>
+  <si>
+    <t>1996m3</t>
+  </si>
+  <si>
+    <t>1996m4</t>
+  </si>
+  <si>
+    <t>1996m5</t>
+  </si>
+  <si>
+    <t>1996m6</t>
+  </si>
+  <si>
+    <t>1996m7</t>
+  </si>
+  <si>
+    <t>1996m8</t>
+  </si>
+  <si>
+    <t>1996m9</t>
+  </si>
+  <si>
+    <t>1996m10</t>
+  </si>
+  <si>
+    <t>1996m11</t>
+  </si>
+  <si>
+    <t>1996m12</t>
+  </si>
+  <si>
+    <t>1997m1</t>
+  </si>
+  <si>
+    <t>1997m2</t>
+  </si>
+  <si>
+    <t>1997m3</t>
+  </si>
+  <si>
+    <t>1997m4</t>
+  </si>
+  <si>
+    <t>1997m5</t>
+  </si>
+  <si>
+    <t>1997m6</t>
+  </si>
+  <si>
+    <t>1997m7</t>
+  </si>
+  <si>
+    <t>1997m8</t>
+  </si>
+  <si>
+    <t>1997m9</t>
+  </si>
+  <si>
+    <t>1997m10</t>
+  </si>
+  <si>
+    <t>1997m11</t>
+  </si>
+  <si>
+    <t>1997m12</t>
+  </si>
+  <si>
+    <t>1998m1</t>
+  </si>
+  <si>
+    <t>1998m2</t>
+  </si>
+  <si>
+    <t>1998m3</t>
+  </si>
+  <si>
+    <t>1998m4</t>
+  </si>
+  <si>
+    <t>1998m5</t>
+  </si>
+  <si>
+    <t>1998m6</t>
+  </si>
+  <si>
+    <t>1998m7</t>
+  </si>
+  <si>
+    <t>1998m8</t>
+  </si>
+  <si>
+    <t>1998m9</t>
+  </si>
+  <si>
+    <t>1998m10</t>
+  </si>
+  <si>
+    <t>1998m11</t>
+  </si>
+  <si>
+    <t>1998m12</t>
+  </si>
+  <si>
+    <t>1999m1</t>
+  </si>
+  <si>
+    <t>1999m2</t>
+  </si>
+  <si>
+    <t>1999m3</t>
+  </si>
+  <si>
+    <t>1999m4</t>
+  </si>
+  <si>
+    <t>1999m5</t>
+  </si>
+  <si>
+    <t>1999m6</t>
+  </si>
+  <si>
+    <t>1999m7</t>
+  </si>
+  <si>
+    <t>1999m8</t>
+  </si>
+  <si>
+    <t>1999m9</t>
+  </si>
+  <si>
+    <t>1999m10</t>
+  </si>
+  <si>
+    <t>1999m11</t>
+  </si>
+  <si>
+    <t>1999m12</t>
+  </si>
+  <si>
+    <t>2000m1</t>
+  </si>
+  <si>
+    <t>2000m2</t>
+  </si>
+  <si>
+    <t>2000m3</t>
+  </si>
+  <si>
+    <t>2000m4</t>
+  </si>
+  <si>
+    <t>2000m5</t>
+  </si>
+  <si>
+    <t>2000m6</t>
+  </si>
+  <si>
+    <t>2000m7</t>
+  </si>
+  <si>
+    <t>2000m8</t>
+  </si>
+  <si>
+    <t>2000m9</t>
+  </si>
+  <si>
+    <t>2000m10</t>
+  </si>
+  <si>
+    <t>2000m11</t>
+  </si>
+  <si>
+    <t>2000m12</t>
+  </si>
+  <si>
+    <t>2001m1</t>
+  </si>
+  <si>
+    <t>2001m2</t>
+  </si>
+  <si>
+    <t>2001m3</t>
+  </si>
+  <si>
+    <t>2001m4</t>
+  </si>
+  <si>
+    <t>2001m5</t>
+  </si>
+  <si>
+    <t>2001m6</t>
+  </si>
+  <si>
+    <t>2001m7</t>
+  </si>
+  <si>
+    <t>2001m8</t>
+  </si>
+  <si>
+    <t>2001m9</t>
+  </si>
+  <si>
+    <t>2001m10</t>
+  </si>
+  <si>
+    <t>2001m11</t>
+  </si>
+  <si>
+    <t>2001m12</t>
+  </si>
+  <si>
+    <t>2002m1</t>
+  </si>
+  <si>
+    <t>2002m2</t>
+  </si>
+  <si>
+    <t>2002m3</t>
+  </si>
+  <si>
+    <t>2002m4</t>
+  </si>
+  <si>
+    <t>2002m5</t>
+  </si>
+  <si>
+    <t>2002m6</t>
+  </si>
+  <si>
+    <t>2002m7</t>
+  </si>
+  <si>
+    <t>2002m8</t>
+  </si>
+  <si>
+    <t>2002m9</t>
+  </si>
+  <si>
+    <t>2002m10</t>
+  </si>
+  <si>
+    <t>2002m11</t>
+  </si>
+  <si>
+    <t>2002m12</t>
+  </si>
+  <si>
+    <t>2003m1</t>
+  </si>
+  <si>
+    <t>2003m2</t>
+  </si>
+  <si>
+    <t>2003m3</t>
+  </si>
+  <si>
+    <t>2003m4</t>
+  </si>
+  <si>
+    <t>2003m5</t>
+  </si>
+  <si>
+    <t>2003m6</t>
+  </si>
+  <si>
+    <t>2003m7</t>
+  </si>
+  <si>
+    <t>2003m8</t>
+  </si>
+  <si>
+    <t>2003m9</t>
+  </si>
+  <si>
+    <t>2003m10</t>
+  </si>
+  <si>
+    <t>2003m11</t>
+  </si>
+  <si>
+    <t>2003m12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -137,9 +1505,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -235,6 +1602,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -270,6 +1654,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,25 +1846,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -472,32 +1876,33 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2"/>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
@@ -519,9 +1924,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>24</v>
       </c>
       <c r="B4">
         <v>8.2586916920164608</v>
@@ -542,9 +1947,9 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>25</v>
       </c>
       <c r="B5">
         <v>8.2669724745862805</v>
@@ -565,9 +1970,9 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
       <c r="B6">
         <v>8.2685844876733405</v>
@@ -588,9 +1993,9 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>27</v>
       </c>
       <c r="B7">
         <v>8.2741913352058791</v>
@@ -611,9 +2016,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>28</v>
       </c>
       <c r="B8">
         <v>8.2807932387429002</v>
@@ -634,9 +2039,9 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
         <v>8.2898309722730996</v>
@@ -657,9 +2062,9 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>30</v>
       </c>
       <c r="B10">
         <v>8.2949625440284098</v>
@@ -680,9 +2085,9 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>31</v>
       </c>
       <c r="B11">
         <v>8.2991331581017</v>
@@ -703,9 +2108,9 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>32</v>
       </c>
       <c r="B12">
         <v>8.3102204715808696</v>
@@ -726,9 +2131,9 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>33</v>
       </c>
       <c r="B13">
         <v>8.3157449053755492</v>
@@ -749,9 +2154,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>34</v>
       </c>
       <c r="B14">
         <v>8.3277652222614496</v>
@@ -772,9 +2177,9 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>35</v>
       </c>
       <c r="B15">
         <v>8.3370793925303008</v>
@@ -795,8 +2200,8 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
@@ -818,9 +2223,9 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>36</v>
       </c>
       <c r="B17">
         <v>8.3488109462291398</v>
@@ -841,9 +2246,9 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>37</v>
       </c>
       <c r="B18">
         <v>8.3437622962639004</v>
@@ -864,9 +2269,9 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>38</v>
       </c>
       <c r="B19">
         <v>8.3472482110469297</v>
@@ -887,9 +2292,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>39</v>
       </c>
       <c r="B20">
         <v>8.3482696940349008</v>
@@ -910,9 +2315,9 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21">
         <v>8.3516310374163005</v>
@@ -933,9 +2338,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
       <c r="B22">
         <v>8.3510028928006506</v>
@@ -956,9 +2361,9 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>42</v>
       </c>
       <c r="B23">
         <v>8.35798378082605</v>
@@ -979,9 +2384,9 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>43</v>
       </c>
       <c r="B24">
         <v>8.3630027041966795</v>
@@ -1002,9 +2407,9 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>44</v>
       </c>
       <c r="B25">
         <v>8.3584870880850008</v>
@@ -1025,9 +2430,9 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>45</v>
       </c>
       <c r="B26">
         <v>8.3647459300809004</v>
@@ -1048,9 +2453,9 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>46</v>
       </c>
       <c r="B27">
         <v>8.3756831169080801</v>
@@ -1071,9 +2476,9 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>47</v>
       </c>
       <c r="B28">
         <v>8.3702915537464708</v>
@@ -1094,8 +2499,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29">
@@ -1117,9 +2522,9 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>48</v>
       </c>
       <c r="B30">
         <v>8.3757803417732895</v>
@@ -1140,9 +2545,9 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>49</v>
       </c>
       <c r="B31">
         <v>8.3692501170763993</v>
@@ -1163,9 +2568,9 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>50</v>
       </c>
       <c r="B32">
         <v>8.3712525026914406</v>
@@ -1186,9 +2591,9 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>18</v>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>51</v>
       </c>
       <c r="B33">
         <v>8.37245350329556</v>
@@ -1209,9 +2614,9 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>19</v>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>52</v>
       </c>
       <c r="B34">
         <v>8.3879087218908808</v>
@@ -1232,9 +2637,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>53</v>
       </c>
       <c r="B35">
         <v>8.3816352234744507</v>
@@ -1255,9 +2660,9 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>21</v>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>54</v>
       </c>
       <c r="B36">
         <v>8.3797911660052709</v>
@@ -1278,9 +2683,9 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
       <c r="B37">
         <v>8.3881069192176092</v>
@@ -1301,9 +2706,9 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>23</v>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>56</v>
       </c>
       <c r="B38">
         <v>8.3981192076197608</v>
@@ -1324,9 +2729,9 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>57</v>
       </c>
       <c r="B39">
         <v>8.4024077846775906</v>
@@ -1347,9 +2752,9 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>58</v>
       </c>
       <c r="B40">
         <v>8.4093860973246706</v>
@@ -1370,9 +2775,9 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>14</v>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>59</v>
       </c>
       <c r="B41">
         <v>8.4145864180607006</v>
@@ -1393,8 +2798,8 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42">
@@ -1416,9 +2821,9 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>60</v>
       </c>
       <c r="B43">
         <v>8.4277395066376499</v>
@@ -1439,9 +2844,9 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>17</v>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>61</v>
       </c>
       <c r="B44">
         <v>8.4319013622110894</v>
@@ -1462,9 +2867,9 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>18</v>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>62</v>
       </c>
       <c r="B45">
         <v>8.4314608948180396</v>
@@ -1485,9 +2890,9 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>19</v>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>63</v>
       </c>
       <c r="B46">
         <v>8.4330190280540993</v>
@@ -1508,9 +2913,9 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>20</v>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>64</v>
       </c>
       <c r="B47">
         <v>8.4336908730181808</v>
@@ -1531,9 +2936,9 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>21</v>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>65</v>
       </c>
       <c r="B48">
         <v>8.4310427342742003</v>
@@ -1554,9 +2959,9 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>22</v>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>66</v>
       </c>
       <c r="B49">
         <v>8.43947818128491</v>
@@ -1577,9 +2982,9 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>23</v>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>67</v>
       </c>
       <c r="B50">
         <v>8.44091212623605</v>
@@ -1600,9 +3005,9 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>12</v>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>68</v>
       </c>
       <c r="B51">
         <v>8.4463914176372992</v>
@@ -1623,9 +3028,9 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>69</v>
       </c>
       <c r="B52">
         <v>8.4521444176686096</v>
@@ -1646,9 +3051,9 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>14</v>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>70</v>
       </c>
       <c r="B53">
         <v>8.4591314523832608</v>
@@ -1669,9 +3074,9 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>15</v>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>71</v>
       </c>
       <c r="B54">
         <v>8.4559225226814299</v>
@@ -1692,8 +3097,8 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>16</v>
       </c>
       <c r="B55">
@@ -1715,9 +3120,9 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>17</v>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>72</v>
       </c>
       <c r="B56">
         <v>8.4593683530706798</v>
@@ -1738,9 +3143,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>18</v>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>73</v>
       </c>
       <c r="B57">
         <v>8.4621880078523901</v>
@@ -1761,9 +3166,9 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>19</v>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>74</v>
       </c>
       <c r="B58">
         <v>8.4626544520543305</v>
@@ -1784,9 +3189,9 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>20</v>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>75</v>
       </c>
       <c r="B59">
         <v>8.4611496145968506</v>
@@ -1807,9 +3212,9 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>21</v>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>76</v>
       </c>
       <c r="B60">
         <v>8.4603760134898707</v>
@@ -1830,9 +3235,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>22</v>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>77</v>
       </c>
       <c r="B61">
         <v>8.4544530645711493</v>
@@ -1853,9 +3258,9 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>23</v>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>78</v>
       </c>
       <c r="B62">
         <v>8.4581284201251705</v>
@@ -1876,9 +3281,9 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>12</v>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>79</v>
       </c>
       <c r="B63">
         <v>8.4513434376554599</v>
@@ -1899,9 +3304,9 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>13</v>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>80</v>
       </c>
       <c r="B64">
         <v>8.4571697664072794</v>
@@ -1922,9 +3327,9 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>14</v>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>81</v>
       </c>
       <c r="B65">
         <v>8.4592102047448297</v>
@@ -1945,9 +3350,9 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>15</v>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>82</v>
       </c>
       <c r="B66">
         <v>8.4569385021413197</v>
@@ -1968,9 +3373,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>16</v>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>83</v>
       </c>
       <c r="B67">
         <v>8.4576749484744198</v>
@@ -1991,8 +3396,8 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>17</v>
       </c>
       <c r="B68">
@@ -2014,9 +3419,9 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>18</v>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>84</v>
       </c>
       <c r="B69">
         <v>8.4658107473707602</v>
@@ -2037,9 +3442,9 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>19</v>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>85</v>
       </c>
       <c r="B70">
         <v>8.4683433577666207</v>
@@ -2060,9 +3465,9 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>20</v>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>86</v>
       </c>
       <c r="B71">
         <v>8.4653108418855592</v>
@@ -2083,9 +3488,9 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>21</v>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>87</v>
       </c>
       <c r="B72">
         <v>8.4498674558427709</v>
@@ -2106,9 +3511,9 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>22</v>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>88</v>
       </c>
       <c r="B73">
         <v>8.4476351566117192</v>
@@ -2129,9 +3534,9 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>23</v>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>89</v>
       </c>
       <c r="B74">
         <v>8.4707757578339091</v>
@@ -2152,9 +3557,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>12</v>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>90</v>
       </c>
       <c r="B75">
         <v>8.4823866899832208</v>
@@ -2175,9 +3580,9 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>13</v>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>91</v>
       </c>
       <c r="B76">
         <v>8.4832503517847702</v>
@@ -2198,9 +3603,9 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>14</v>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>92</v>
       </c>
       <c r="B77">
         <v>8.48210573006895</v>
@@ -2221,9 +3626,9 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>15</v>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>93</v>
       </c>
       <c r="B78">
         <v>8.4838488324798504</v>
@@ -2244,9 +3649,9 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>16</v>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>94</v>
       </c>
       <c r="B79">
         <v>8.4876640597305197</v>
@@ -2267,9 +3672,9 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>17</v>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>95</v>
       </c>
       <c r="B80">
         <v>8.4932405746214297</v>
@@ -2290,8 +3695,8 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>18</v>
       </c>
       <c r="B81">
@@ -2313,9 +3718,9 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>19</v>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>96</v>
       </c>
       <c r="B82">
         <v>8.4912059310910308</v>
@@ -2336,9 +3741,9 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>20</v>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>97</v>
       </c>
       <c r="B83">
         <v>8.5015024023148502</v>
@@ -2359,9 +3764,9 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>21</v>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>98</v>
       </c>
       <c r="B84">
         <v>8.5008044595979193</v>
@@ -2382,9 +3787,9 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>22</v>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>99</v>
       </c>
       <c r="B85">
         <v>8.4969956534731104</v>
@@ -2405,9 +3810,9 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>23</v>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>100</v>
       </c>
       <c r="B86">
         <v>8.4989784060555706</v>
@@ -2428,9 +3833,9 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>12</v>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>101</v>
       </c>
       <c r="B87">
         <v>8.5112848728260602</v>
@@ -2451,9 +3856,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>13</v>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>102</v>
       </c>
       <c r="B88">
         <v>8.5157347339840594</v>
@@ -2474,9 +3879,9 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>14</v>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>103</v>
       </c>
       <c r="B89">
         <v>8.5227261493348294</v>
@@ -2497,9 +3902,9 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>15</v>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>104</v>
       </c>
       <c r="B90">
         <v>8.5365571115140906</v>
@@ -2520,9 +3925,9 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>16</v>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>105</v>
       </c>
       <c r="B91">
         <v>8.5391543618907697</v>
@@ -2543,9 +3948,9 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>17</v>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>106</v>
       </c>
       <c r="B92">
         <v>8.5427276848425393</v>
@@ -2566,9 +3971,9 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>18</v>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>107</v>
       </c>
       <c r="B93">
         <v>8.5419547719697295</v>
@@ -2589,8 +3994,8 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>19</v>
       </c>
       <c r="B94">
@@ -2612,9 +4017,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>20</v>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>108</v>
       </c>
       <c r="B95">
         <v>8.5530488084021403</v>
@@ -2635,9 +4040,9 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>21</v>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>109</v>
       </c>
       <c r="B96">
         <v>8.55848530945911</v>
@@ -2658,9 +4063,9 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>22</v>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>110</v>
       </c>
       <c r="B97">
         <v>8.5643018634316892</v>
@@ -2681,9 +4086,9 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>23</v>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>111</v>
       </c>
       <c r="B98">
         <v>8.5725404672354308</v>
@@ -2704,9 +4109,9 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>12</v>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>112</v>
       </c>
       <c r="B99">
         <v>8.5787190690972199</v>
@@ -2727,9 +4132,9 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>13</v>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>113</v>
       </c>
       <c r="B100">
         <v>8.59341136947568</v>
@@ -2750,9 +4155,9 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>14</v>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>114</v>
       </c>
       <c r="B101">
         <v>8.5961559113744705</v>
@@ -2773,9 +4178,9 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>15</v>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>115</v>
       </c>
       <c r="B102">
         <v>8.5979747249830005</v>
@@ -2796,9 +4201,9 @@
         <v>7.12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>16</v>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>116</v>
       </c>
       <c r="B103">
         <v>8.6035339273931104</v>
@@ -2819,9 +4224,9 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>17</v>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>117</v>
       </c>
       <c r="B104">
         <v>8.6006591853227796</v>
@@ -2842,9 +4247,9 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>18</v>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>118</v>
       </c>
       <c r="B105">
         <v>8.5976334473185396</v>
@@ -2865,9 +4270,9 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>19</v>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>119</v>
       </c>
       <c r="B106">
         <v>8.5912946914775894</v>
@@ -2888,8 +4293,8 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>20</v>
       </c>
       <c r="B107">
@@ -2911,9 +4316,9 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>21</v>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>120</v>
       </c>
       <c r="B108">
         <v>8.60270983324566</v>
@@ -2934,9 +4339,9 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>22</v>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>121</v>
       </c>
       <c r="B109">
         <v>8.6067929501204699</v>
@@ -2957,9 +4362,9 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>23</v>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>122</v>
       </c>
       <c r="B110">
         <v>8.6041814522720301</v>
@@ -2980,9 +4385,9 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>12</v>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>123</v>
       </c>
       <c r="B111">
         <v>8.5972088363851196</v>
@@ -3003,9 +4408,9 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>13</v>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>124</v>
       </c>
       <c r="B112">
         <v>8.5950207198215995</v>
@@ -3026,9 +4431,9 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>14</v>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>125</v>
       </c>
       <c r="B113">
         <v>8.5964476859467798</v>
@@ -3049,9 +4454,9 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>15</v>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>126</v>
       </c>
       <c r="B114">
         <v>8.5961145925682203</v>
@@ -3072,9 +4477,9 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>16</v>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>127</v>
       </c>
       <c r="B115">
         <v>8.6021981602812705</v>
@@ -3095,9 +4500,9 @@
         <v>11.31</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>17</v>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>128</v>
       </c>
       <c r="B116">
         <v>8.5982184238234591</v>
@@ -3118,9 +4523,9 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>18</v>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>129</v>
       </c>
       <c r="B117">
         <v>8.5923858330033305</v>
@@ -3141,9 +4546,9 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>19</v>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>130</v>
       </c>
       <c r="B118">
         <v>8.5838940172121792</v>
@@ -3164,9 +4569,9 @@
         <v>12.01</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>20</v>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>131</v>
       </c>
       <c r="B119">
         <v>8.5910127878222404</v>
@@ -3187,8 +4592,8 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>21</v>
       </c>
       <c r="B120">
@@ -3210,9 +4615,9 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>22</v>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>132</v>
       </c>
       <c r="B121">
         <v>8.5848177879084204</v>
@@ -3233,9 +4638,9 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>23</v>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>133</v>
       </c>
       <c r="B122">
         <v>8.5701355717637799</v>
@@ -3256,9 +4661,9 @@
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>12</v>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>134</v>
       </c>
       <c r="B123">
         <v>8.5763733449846598</v>
@@ -3279,9 +4684,9 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>13</v>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>135</v>
       </c>
       <c r="B124">
         <v>8.5707702678272497</v>
@@ -3302,9 +4707,9 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>14</v>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>136</v>
       </c>
       <c r="B125">
         <v>8.5716958959130807</v>
@@ -3325,9 +4730,9 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>15</v>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>137</v>
       </c>
       <c r="B126">
         <v>8.5782162761416707</v>
@@ -3348,9 +4753,9 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>16</v>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>138</v>
       </c>
       <c r="B127">
         <v>8.5790534965203396</v>
@@ -3371,9 +4776,9 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>17</v>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>139</v>
       </c>
       <c r="B128">
         <v>8.5845740665482602</v>
@@ -3394,9 +4799,9 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>18</v>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>140</v>
       </c>
       <c r="B129">
         <v>8.5906565213899704</v>
@@ -3417,9 +4822,9 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>19</v>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>141</v>
       </c>
       <c r="B130">
         <v>8.5958887747712698</v>
@@ -3440,9 +4845,9 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>20</v>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>142</v>
       </c>
       <c r="B131">
         <v>8.6044675319945796</v>
@@ -3463,9 +4868,9 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>21</v>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>143</v>
       </c>
       <c r="B132">
         <v>8.6066194927440893</v>
@@ -3486,8 +4891,8 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
         <v>22</v>
       </c>
       <c r="B133">
@@ -3509,9 +4914,9 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>23</v>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>144</v>
       </c>
       <c r="B134">
         <v>8.6168850146941303</v>
@@ -3532,9 +4937,9 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>12</v>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>145</v>
       </c>
       <c r="B135">
         <v>8.6280046438278095</v>
@@ -3555,9 +4960,9 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>13</v>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>146</v>
       </c>
       <c r="B136">
         <v>8.6350764782250806</v>
@@ -3578,9 +4983,9 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>14</v>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>147</v>
       </c>
       <c r="B137">
         <v>8.6351033009539506</v>
@@ -3601,9 +5006,9 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>15</v>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>148</v>
       </c>
       <c r="B138">
         <v>8.6390571635568598</v>
@@ -3624,9 +5029,9 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>16</v>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>149</v>
       </c>
       <c r="B139">
         <v>8.64166101940069</v>
@@ -3647,9 +5052,9 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>17</v>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>150</v>
       </c>
       <c r="B140">
         <v>8.6400601552263208</v>
@@ -3670,9 +5075,9 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>18</v>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>151</v>
       </c>
       <c r="B141">
         <v>8.6430259512444607</v>
@@ -3693,9 +5098,9 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>19</v>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>152</v>
       </c>
       <c r="B142">
         <v>8.6465500890985201</v>
@@ -3716,9 +5121,9 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>20</v>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>153</v>
       </c>
       <c r="B143">
         <v>8.6464402876103001</v>
@@ -3739,9 +5144,9 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>21</v>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>154</v>
       </c>
       <c r="B144">
         <v>8.6438227452523009</v>
@@ -3762,9 +5167,9 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>22</v>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>155</v>
       </c>
       <c r="B145">
         <v>8.6537780752378595</v>
@@ -3785,8 +5190,8 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
         <v>23</v>
       </c>
       <c r="B146">
@@ -3808,9 +5213,9 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>12</v>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>156</v>
       </c>
       <c r="B147">
         <v>8.6547753008984305</v>
@@ -3831,9 +5236,9 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>13</v>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>157</v>
       </c>
       <c r="B148">
         <v>8.6654282754721503</v>
@@ -3854,9 +5259,9 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>14</v>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>158</v>
       </c>
       <c r="B149">
         <v>8.6728786069910093</v>
@@ -3877,9 +5282,9 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>15</v>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>159</v>
       </c>
       <c r="B150">
         <v>8.6765602585502801</v>
@@ -3900,9 +5305,9 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>16</v>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>160</v>
       </c>
       <c r="B151">
         <v>8.68305595633975</v>
@@ -3923,9 +5328,9 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>17</v>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>161</v>
       </c>
       <c r="B152">
         <v>8.6918022087248392</v>
@@ -3946,9 +5351,9 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>18</v>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>162</v>
       </c>
       <c r="B153">
         <v>8.6988211925894205</v>
@@ -3969,9 +5374,9 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>19</v>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>163</v>
       </c>
       <c r="B154">
         <v>8.7011823924182998</v>
@@ -3992,9 +5397,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>20</v>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>164</v>
       </c>
       <c r="B155">
         <v>8.70407859748879</v>
@@ -4015,9 +5420,9 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>21</v>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>165</v>
       </c>
       <c r="B156">
         <v>8.7016010111162103</v>
@@ -4038,9 +5443,9 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>22</v>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>166</v>
       </c>
       <c r="B157">
         <v>8.7003513488289492</v>
@@ -4061,9 +5466,9 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>23</v>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>167</v>
       </c>
       <c r="B158">
         <v>8.7024350885290698</v>
@@ -4084,9 +5489,9 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>12</v>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>168</v>
       </c>
       <c r="B159">
         <v>8.6941415887756204</v>
@@ -4107,9 +5512,9 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>13</v>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>169</v>
       </c>
       <c r="B160">
         <v>8.7012754820415505</v>
@@ -4130,9 +5535,9 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>14</v>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>170</v>
       </c>
       <c r="B161">
         <v>8.71921586561586</v>
@@ -4153,9 +5558,9 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>15</v>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>171</v>
       </c>
       <c r="B162">
         <v>8.7380787079276292</v>
@@ -4176,9 +5581,9 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>16</v>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>172</v>
       </c>
       <c r="B163">
         <v>8.74208499540579</v>
@@ -4199,9 +5604,9 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>17</v>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>173</v>
       </c>
       <c r="B164">
         <v>8.7490602873295806</v>
@@ -4222,9 +5627,9 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>18</v>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>174</v>
       </c>
       <c r="B165">
         <v>8.7498034981451998</v>
@@ -4245,9 +5650,9 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>19</v>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>175</v>
       </c>
       <c r="B166">
         <v>8.7532982337049603</v>
@@ -4268,9 +5673,9 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>20</v>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>176</v>
       </c>
       <c r="B167">
         <v>8.7553459764417791</v>
@@ -4291,9 +5696,9 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>21</v>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>177</v>
       </c>
       <c r="B168">
         <v>8.7612118436623092</v>
@@ -4314,9 +5719,9 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>22</v>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>178</v>
       </c>
       <c r="B169">
         <v>8.7665369558807598</v>
@@ -4337,9 +5742,9 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>23</v>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>179</v>
       </c>
       <c r="B170">
         <v>8.7706166772043108</v>
@@ -4360,9 +5765,9 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>12</v>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>180</v>
       </c>
       <c r="B171">
         <v>8.7641067879156207</v>
@@ -4383,9 +5788,9 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>13</v>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>181</v>
       </c>
       <c r="B172">
         <v>8.7686584493662192</v>
@@ -4406,9 +5811,9 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>14</v>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>182</v>
       </c>
       <c r="B173">
         <v>8.7715898526663896</v>
@@ -4429,9 +5834,9 @@
         <v>10.09</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>15</v>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>183</v>
       </c>
       <c r="B174">
         <v>8.7625436615568297</v>
@@ -4452,9 +5857,9 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>16</v>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>184</v>
       </c>
       <c r="B175">
         <v>8.7711025805608696</v>
@@ -4475,9 +5880,9 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>17</v>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>185</v>
       </c>
       <c r="B176">
         <v>8.7743252096795494</v>
@@ -4498,9 +5903,9 @@
         <v>10.29</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>18</v>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>186</v>
       </c>
       <c r="B177">
         <v>8.7777091523611208</v>
@@ -4521,9 +5926,9 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>19</v>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>187</v>
       </c>
       <c r="B178">
         <v>8.7748900942158095</v>
@@ -4544,9 +5949,9 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>20</v>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>188</v>
       </c>
       <c r="B179">
         <v>8.7768723216737801</v>
@@ -4567,9 +5972,9 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>21</v>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>189</v>
       </c>
       <c r="B180">
         <v>8.7803881842717999</v>
@@ -4590,9 +5995,9 @@
         <v>13.77</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>22</v>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>190</v>
       </c>
       <c r="B181">
         <v>8.7785633362181699</v>
@@ -4613,9 +6018,9 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>23</v>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>191</v>
       </c>
       <c r="B182">
         <v>8.7782422205716006</v>
@@ -4636,9 +6041,9 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>12</v>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>192</v>
       </c>
       <c r="B183">
         <v>8.7807446315271598</v>
@@ -4659,9 +6064,9 @@
         <v>13.82</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>13</v>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>193</v>
       </c>
       <c r="B184">
         <v>8.7825446078993998</v>
@@ -4682,9 +6087,9 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>14</v>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>194</v>
       </c>
       <c r="B185">
         <v>8.7836311868091208</v>
@@ -4705,9 +6110,9 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>15</v>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>195</v>
       </c>
       <c r="B186">
         <v>8.7726233585014892</v>
@@ -4728,9 +6133,9 @@
         <v>17.61</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>16</v>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>196</v>
       </c>
       <c r="B187">
         <v>8.7583623817648206</v>
@@ -4751,9 +6156,9 @@
         <v>10.98</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>17</v>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>197</v>
       </c>
       <c r="B188">
         <v>8.7543712319834892</v>
@@ -4774,9 +6179,9 @@
         <v>9.4700000000000006</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>18</v>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>198</v>
       </c>
       <c r="B189">
         <v>8.7553416941511397</v>
@@ -4797,9 +6202,9 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>19</v>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>199</v>
       </c>
       <c r="B190">
         <v>8.7583900406850006</v>
@@ -4820,9 +6225,9 @@
         <v>9.61</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>20</v>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>200</v>
       </c>
       <c r="B191">
         <v>8.76711952576259</v>
@@ -4843,9 +6248,9 @@
         <v>10.87</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>21</v>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>201</v>
       </c>
       <c r="B192">
         <v>8.7672712594965301</v>
@@ -4866,9 +6271,9 @@
         <v>12.81</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>22</v>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>202</v>
       </c>
       <c r="B193">
         <v>8.7793240138690294</v>
@@ -4889,9 +6294,9 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>23</v>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>203</v>
       </c>
       <c r="B194">
         <v>8.7892318744953499</v>
@@ -4912,9 +6317,9 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>12</v>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>204</v>
       </c>
       <c r="B195">
         <v>8.7970458485800105</v>
@@ -4935,9 +6340,9 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>13</v>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>205</v>
       </c>
       <c r="B196">
         <v>8.7985723526396704</v>
@@ -4958,9 +6363,9 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>14</v>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>206</v>
       </c>
       <c r="B197">
         <v>8.8018225438560993</v>
@@ -4981,9 +6386,9 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>15</v>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>207</v>
       </c>
       <c r="B198">
         <v>8.7902441311057693</v>
@@ -5004,9 +6409,9 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>16</v>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>208</v>
       </c>
       <c r="B199">
         <v>8.7911135444946407</v>
@@ -5027,9 +6432,9 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>17</v>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>209</v>
       </c>
       <c r="B200">
         <v>8.7940994908576897</v>
@@ -5050,9 +6455,9 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>18</v>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>210</v>
       </c>
       <c r="B201">
         <v>8.8021934319694193</v>
@@ -5073,9 +6478,9 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>19</v>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>211</v>
       </c>
       <c r="B202">
         <v>8.8048839245805102</v>
@@ -5096,9 +6501,9 @@
         <v>17.82</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>20</v>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>212</v>
       </c>
       <c r="B203">
         <v>8.8026072721680908</v>
@@ -5119,9 +6524,9 @@
         <v>15.87</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>21</v>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>213</v>
       </c>
       <c r="B204">
         <v>8.79995765542761</v>
@@ -5142,9 +6547,9 @@
         <v>15.08</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>22</v>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>214</v>
       </c>
       <c r="B205">
         <v>8.7920186614017997</v>
@@ -5165,9 +6570,9 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>23</v>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>215</v>
       </c>
       <c r="B206">
         <v>8.7824045234455408</v>
@@ -5188,9 +6593,9 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>12</v>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>216</v>
       </c>
       <c r="B207">
         <v>8.7638350025605494</v>
@@ -5211,9 +6616,9 @@
         <v>13.22</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>13</v>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>217</v>
       </c>
       <c r="B208">
         <v>8.7808088737644105</v>
@@ -5234,9 +6639,9 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>14</v>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>218</v>
       </c>
       <c r="B209">
         <v>8.7791354356149292</v>
@@ -5257,9 +6662,9 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>15</v>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>219</v>
       </c>
       <c r="B210">
         <v>8.7797471534284703</v>
@@ -5280,9 +6685,9 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>16</v>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>220</v>
       </c>
       <c r="B211">
         <v>8.7801050942101799</v>
@@ -5303,9 +6708,9 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>17</v>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>221</v>
       </c>
       <c r="B212">
         <v>8.7803427205596307</v>
@@ -5326,9 +6731,9 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>18</v>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>222</v>
       </c>
       <c r="B213">
         <v>8.7781400857352097</v>
@@ -5349,9 +6754,9 @@
         <v>12.59</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>19</v>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>223</v>
       </c>
       <c r="B214">
         <v>8.7742833741793493</v>
@@ -5372,9 +6777,9 @@
         <v>10.119999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>20</v>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>224</v>
       </c>
       <c r="B215">
         <v>8.7769074350627907</v>
@@ -5395,9 +6800,9 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>21</v>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>225</v>
       </c>
       <c r="B216">
         <v>8.7773501182747893</v>
@@ -5418,9 +6823,9 @@
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>22</v>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>226</v>
       </c>
       <c r="B217">
         <v>8.7791763948276493</v>
@@ -5441,9 +6846,9 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>23</v>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>227</v>
       </c>
       <c r="B218">
         <v>8.7757669420314404</v>
@@ -5464,9 +6869,9 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>12</v>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>228</v>
       </c>
       <c r="B219">
         <v>8.7900865885818806</v>
@@ -5487,9 +6892,9 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>13</v>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>229</v>
       </c>
       <c r="B220">
         <v>8.7863097653373803</v>
@@ -5510,9 +6915,9 @@
         <v>8.51</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>14</v>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>230</v>
       </c>
       <c r="B221">
         <v>8.7948947045194696</v>
@@ -5533,9 +6938,9 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>15</v>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>231</v>
       </c>
       <c r="B222">
         <v>8.8079204506766704</v>
@@ -5556,9 +6961,9 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>16</v>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>232</v>
       </c>
       <c r="B223">
         <v>8.8142126351671806</v>
@@ -5579,9 +6984,9 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>17</v>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>233</v>
       </c>
       <c r="B224">
         <v>8.8168671443398701</v>
@@ -5602,9 +7007,9 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>18</v>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>234</v>
       </c>
       <c r="B225">
         <v>8.8243002129409902</v>
@@ -5625,9 +7030,9 @@
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>19</v>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>235</v>
       </c>
       <c r="B226">
         <v>8.8306171708783499</v>
@@ -5648,9 +7053,9 @@
         <v>9.56</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>20</v>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>236</v>
       </c>
       <c r="B227">
         <v>8.84219423504811</v>
@@ -5671,9 +7076,9 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>21</v>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>237</v>
       </c>
       <c r="B228">
         <v>8.8500443114154201</v>
@@ -5694,9 +7099,9 @@
         <v>9.48</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>22</v>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>238</v>
       </c>
       <c r="B229">
         <v>8.8528287035096707</v>
@@ -5717,9 +7122,9 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>23</v>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>239</v>
       </c>
       <c r="B230">
         <v>8.8555431782462506</v>
@@ -5740,9 +7145,9 @@
         <v>9.4700000000000006</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>12</v>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>240</v>
       </c>
       <c r="B231">
         <v>8.8688344347146106</v>
@@ -5763,9 +7168,9 @@
         <v>9.56</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>13</v>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>241</v>
       </c>
       <c r="B232">
         <v>8.8719045060362092</v>
@@ -5786,9 +7191,9 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>14</v>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>242</v>
       </c>
       <c r="B233">
         <v>8.8766649760073104</v>
@@ -5809,9 +7214,9 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>15</v>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>243</v>
       </c>
       <c r="B234">
         <v>8.8845764288224807</v>
@@ -5832,9 +7237,9 @@
         <v>10.29</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>16</v>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>244</v>
       </c>
       <c r="B235">
         <v>8.8904139407044305</v>
@@ -5855,9 +7260,9 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>17</v>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>245</v>
       </c>
       <c r="B236">
         <v>8.8946455053762499</v>
@@ -5878,9 +7283,9 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>18</v>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>246</v>
       </c>
       <c r="B237">
         <v>8.8980935561550805</v>
@@ -5901,9 +7306,9 @@
         <v>11.23</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>19</v>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>247</v>
       </c>
       <c r="B238">
         <v>8.9000380329442805</v>
@@ -5924,9 +7329,9 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>20</v>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>248</v>
       </c>
       <c r="B239">
         <v>8.9008950200452901</v>
@@ -5947,9 +7352,9 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>21</v>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>249</v>
       </c>
       <c r="B240">
         <v>8.9025958382903099</v>
@@ -5970,9 +7375,9 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>22</v>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>250</v>
       </c>
       <c r="B241">
         <v>8.9083621470422205</v>
@@ -5993,9 +7398,9 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>23</v>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>251</v>
       </c>
       <c r="B242">
         <v>8.9118976073198208</v>
@@ -6016,9 +7421,9 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>12</v>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>252</v>
       </c>
       <c r="B243">
         <v>8.9126291804155198</v>
@@ -6039,9 +7444,9 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>13</v>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>253</v>
       </c>
       <c r="B244">
         <v>8.9183319964230492</v>
@@ -6062,9 +7467,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>14</v>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>254</v>
       </c>
       <c r="B245">
         <v>8.9215536428157804</v>
@@ -6085,9 +7490,9 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>15</v>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>255</v>
       </c>
       <c r="B246">
         <v>8.9213078074870698</v>
@@ -6108,9 +7513,9 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>16</v>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>256</v>
       </c>
       <c r="B247">
         <v>8.9261478793191102</v>
@@ -6131,9 +7536,9 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>17</v>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>257</v>
       </c>
       <c r="B248">
         <v>8.9324243609917708</v>
@@ -6154,9 +7559,9 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>18</v>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>258</v>
       </c>
       <c r="B249">
         <v>8.9347503474086594</v>
@@ -6177,9 +7582,9 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>19</v>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>259</v>
       </c>
       <c r="B250">
         <v>8.9429287088967495</v>
@@ -6200,9 +7605,9 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>20</v>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>260</v>
       </c>
       <c r="B251">
         <v>8.9484793466726202</v>
@@ -6223,9 +7628,9 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>21</v>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>261</v>
       </c>
       <c r="B252">
         <v>8.9447753613514909</v>
@@ -6246,9 +7651,9 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>22</v>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>262</v>
       </c>
       <c r="B253">
         <v>8.9474775930009791</v>
@@ -6269,9 +7674,9 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>23</v>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>263</v>
       </c>
       <c r="B254">
         <v>8.9563509598282405</v>
@@ -6292,9 +7697,9 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>12</v>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>264</v>
       </c>
       <c r="B255">
         <v>8.9616904061746503</v>
@@ -6315,9 +7720,9 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>13</v>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>265</v>
       </c>
       <c r="B256">
         <v>8.9584031536160804</v>
@@ -6338,9 +7743,9 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>14</v>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>266</v>
       </c>
       <c r="B257">
         <v>8.9562137168180502</v>
@@ -6361,9 +7766,9 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>15</v>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>267</v>
       </c>
       <c r="B258">
         <v>8.9599805403086297</v>
@@ -6384,9 +7789,9 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>16</v>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>268</v>
       </c>
       <c r="B259">
         <v>8.9646954256810893</v>
@@ -6407,9 +7812,9 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>17</v>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
+        <v>269</v>
       </c>
       <c r="B260">
         <v>8.9653722696575198</v>
@@ -6430,9 +7835,9 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>18</v>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>270</v>
       </c>
       <c r="B261">
         <v>8.9731862519124697</v>
@@ -6453,9 +7858,9 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>19</v>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>271</v>
       </c>
       <c r="B262">
         <v>8.9728755449922506</v>
@@ -6476,9 +7881,9 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>20</v>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>272</v>
       </c>
       <c r="B263">
         <v>8.9740301102161304</v>
@@ -6499,9 +7904,9 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>21</v>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
+        <v>273</v>
       </c>
       <c r="B264">
         <v>8.9754928819970008</v>
@@ -6522,9 +7927,9 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>22</v>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>274</v>
       </c>
       <c r="B265">
         <v>8.9774743142735893</v>
@@ -6545,9 +7950,9 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>23</v>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>275</v>
       </c>
       <c r="B266">
         <v>8.9826224840687701</v>
@@ -6568,9 +7973,9 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>12</v>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
+        <v>276</v>
       </c>
       <c r="B267">
         <v>8.9793933278308202</v>
@@ -6591,9 +7996,9 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>13</v>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>277</v>
       </c>
       <c r="B268">
         <v>8.98822437816888</v>
@@ -6614,9 +8019,9 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>14</v>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
+        <v>278</v>
       </c>
       <c r="B269">
         <v>8.9888405080673994</v>
@@ -6637,9 +8042,9 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>15</v>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>279</v>
       </c>
       <c r="B270">
         <v>8.9932403136639305</v>
@@ -6660,9 +8065,9 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>16</v>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>280</v>
       </c>
       <c r="B271">
         <v>8.9973150749152193</v>
@@ -6683,9 +8088,9 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>17</v>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>281</v>
       </c>
       <c r="B272">
         <v>8.9994278076278906</v>
@@ -6706,9 +8111,9 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>18</v>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>282</v>
       </c>
       <c r="B273">
         <v>9.0023008546552798</v>
@@ -6729,9 +8134,9 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>19</v>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>283</v>
       </c>
       <c r="B274">
         <v>9.0068853187740991</v>
@@ -6752,9 +8157,9 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>20</v>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
+        <v>284</v>
       </c>
       <c r="B275">
         <v>9.0079036751734396</v>
@@ -6775,9 +8180,9 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>21</v>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
+        <v>285</v>
       </c>
       <c r="B276">
         <v>9.01879078901821</v>
@@ -6798,9 +8203,9 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>22</v>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
+        <v>286</v>
       </c>
       <c r="B277">
         <v>9.0222975349463592</v>
@@ -6821,9 +8226,9 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>23</v>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>287</v>
       </c>
       <c r="B278">
         <v>9.0250730038975604</v>
@@ -6844,9 +8249,9 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>12</v>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>288</v>
       </c>
       <c r="B279">
         <v>9.0241275116716899</v>
@@ -6867,9 +8272,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>13</v>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
+        <v>289</v>
       </c>
       <c r="B280">
         <v>9.0275920421275604</v>
@@ -6890,9 +8295,9 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>14</v>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
+        <v>290</v>
       </c>
       <c r="B281">
         <v>9.0312679552053208</v>
@@ -6913,9 +8318,9 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>15</v>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
+        <v>291</v>
       </c>
       <c r="B282">
         <v>9.0388702803275507</v>
@@ -6936,9 +8341,9 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>16</v>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
+        <v>292</v>
       </c>
       <c r="B283">
         <v>9.0402267580866909</v>
@@ -6959,9 +8364,9 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>17</v>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
+        <v>293</v>
       </c>
       <c r="B284">
         <v>9.0432883208018602</v>
@@ -6982,9 +8387,9 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>18</v>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
+        <v>294</v>
       </c>
       <c r="B285">
         <v>9.0434989568063493</v>
@@ -7005,9 +8410,9 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>19</v>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
+        <v>295</v>
       </c>
       <c r="B286">
         <v>9.0481135665119101</v>
@@ -7028,9 +8433,9 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>20</v>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
+        <v>296</v>
       </c>
       <c r="B287">
         <v>9.0480306462408304</v>
@@ -7051,9 +8456,9 @@
         <v>8.19</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>21</v>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A288" t="s">
+        <v>297</v>
       </c>
       <c r="B288">
         <v>9.0550053087270292</v>
@@ -7074,9 +8479,9 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>22</v>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A289" t="s">
+        <v>298</v>
       </c>
       <c r="B289">
         <v>9.0591634764494096</v>
@@ -7097,9 +8502,9 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>23</v>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A290" t="s">
+        <v>299</v>
       </c>
       <c r="B290">
         <v>9.0649169703615406</v>
@@ -7120,9 +8525,9 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>12</v>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A291" t="s">
+        <v>300</v>
       </c>
       <c r="B291">
         <v>9.0688287006627704</v>
@@ -7143,9 +8548,9 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>13</v>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A292" t="s">
+        <v>301</v>
       </c>
       <c r="B292">
         <v>9.0678084112601596</v>
@@ -7166,9 +8571,9 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>14</v>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A293" t="s">
+        <v>302</v>
       </c>
       <c r="B293">
         <v>9.0725887919028896</v>
@@ -7189,9 +8594,9 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>15</v>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
+        <v>303</v>
       </c>
       <c r="B294">
         <v>9.0767001646315499</v>
@@ -7212,9 +8617,9 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>16</v>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>304</v>
       </c>
       <c r="B295">
         <v>9.0752914418452892</v>
@@ -7235,9 +8640,9 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>17</v>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>305</v>
       </c>
       <c r="B296">
         <v>9.0807236453242908</v>
@@ -7258,9 +8663,9 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>18</v>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A297" t="s">
+        <v>306</v>
       </c>
       <c r="B297">
         <v>9.0791371157092495</v>
@@ -7281,9 +8686,9 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>19</v>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
+        <v>307</v>
       </c>
       <c r="B298">
         <v>9.0888764619685904</v>
@@ -7304,9 +8709,9 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>20</v>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A299" t="s">
+        <v>308</v>
       </c>
       <c r="B299">
         <v>9.0870053819917498</v>
@@ -7327,9 +8732,9 @@
         <v>9.02</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>21</v>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
+        <v>309</v>
       </c>
       <c r="B300">
         <v>9.0837139100396591</v>
@@ -7350,9 +8755,9 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>22</v>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
+        <v>310</v>
       </c>
       <c r="B301">
         <v>9.0858158859707405</v>
@@ -7373,9 +8778,9 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>23</v>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A302" t="s">
+        <v>311</v>
       </c>
       <c r="B302">
         <v>9.0918165279390202</v>
@@ -7396,9 +8801,9 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>12</v>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
+        <v>312</v>
       </c>
       <c r="B303">
         <v>9.09066004119315</v>
@@ -7419,9 +8824,9 @@
         <v>8.23</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>13</v>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A304" t="s">
+        <v>313</v>
       </c>
       <c r="B304">
         <v>9.0995627314896108</v>
@@ -7442,9 +8847,9 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>14</v>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>314</v>
       </c>
       <c r="B305">
         <v>9.1037660394962501</v>
@@ -7465,9 +8870,9 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>15</v>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>315</v>
       </c>
       <c r="B306">
         <v>9.1015808628348491</v>
@@ -7488,9 +8893,9 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>16</v>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>316</v>
       </c>
       <c r="B307">
         <v>9.1014401439217405</v>
@@ -7511,9 +8916,9 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>17</v>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>317</v>
       </c>
       <c r="B308">
         <v>9.1026037138598408</v>
@@ -7534,9 +8939,9 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>18</v>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A309" t="s">
+        <v>318</v>
       </c>
       <c r="B309">
         <v>9.1005535499953805</v>
@@ -7557,9 +8962,9 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>19</v>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>319</v>
       </c>
       <c r="B310">
         <v>9.1020209235468599</v>
@@ -7580,9 +8985,9 @@
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>20</v>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A311" t="s">
+        <v>320</v>
       </c>
       <c r="B311">
         <v>9.1037835584837996</v>
@@ -7603,9 +9008,9 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>21</v>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>321</v>
       </c>
       <c r="B312">
         <v>9.0988878443042598</v>
@@ -7626,9 +9031,9 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>22</v>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>322</v>
       </c>
       <c r="B313">
         <v>9.0918973170925206</v>
@@ -7649,9 +9054,9 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>23</v>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A314" t="s">
+        <v>323</v>
       </c>
       <c r="B314">
         <v>9.0898704432032797</v>
@@ -7672,9 +9077,9 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>12</v>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A315" t="s">
+        <v>324</v>
       </c>
       <c r="B315">
         <v>9.0905898823759603</v>
@@ -7695,9 +9100,9 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>13</v>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A316" t="s">
+        <v>325</v>
       </c>
       <c r="B316">
         <v>9.0888643470338906</v>
@@ -7718,9 +9123,9 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>14</v>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A317" t="s">
+        <v>326</v>
       </c>
       <c r="B317">
         <v>9.0871280728682997</v>
@@ -7741,9 +9146,9 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>15</v>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A318" t="s">
+        <v>327</v>
       </c>
       <c r="B318">
         <v>9.0899987059525493</v>
@@ -7764,9 +9169,9 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>16</v>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A319" t="s">
+        <v>328</v>
       </c>
       <c r="B319">
         <v>9.0971856139749505</v>
@@ -7787,9 +9192,9 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>17</v>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A320" t="s">
+        <v>329</v>
       </c>
       <c r="B320">
         <v>9.1025770758408608</v>
@@ -7810,9 +9215,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>18</v>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A321" t="s">
+        <v>330</v>
       </c>
       <c r="B321">
         <v>9.0998641731625298</v>
@@ -7833,9 +9238,9 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>19</v>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A322" t="s">
+        <v>331</v>
       </c>
       <c r="B322">
         <v>9.0992193085099196</v>
@@ -7856,9 +9261,9 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>20</v>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A323" t="s">
+        <v>332</v>
       </c>
       <c r="B323">
         <v>9.1050597944565492</v>
@@ -7879,9 +9284,9 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>21</v>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A324" t="s">
+        <v>333</v>
       </c>
       <c r="B324">
         <v>9.1039491683419396</v>
@@ -7902,9 +9307,9 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>22</v>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A325" t="s">
+        <v>334</v>
       </c>
       <c r="B325">
         <v>9.1057807441886993</v>
@@ -7925,9 +9330,9 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>23</v>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>335</v>
       </c>
       <c r="B326">
         <v>9.1074723624425395</v>
@@ -7948,9 +9353,9 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>12</v>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A327" t="s">
+        <v>336</v>
       </c>
       <c r="B327">
         <v>9.1094118199756799</v>
@@ -7971,9 +9376,9 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>13</v>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A328" t="s">
+        <v>337</v>
       </c>
       <c r="B328">
         <v>9.1181221171316</v>
@@ -7994,9 +9399,9 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>14</v>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>338</v>
       </c>
       <c r="B329">
         <v>9.1248437896873504</v>
@@ -8017,9 +9422,9 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>15</v>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A330" t="s">
+        <v>339</v>
       </c>
       <c r="B330">
         <v>9.1272856544935994</v>
@@ -8040,9 +9445,9 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>16</v>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A331" t="s">
+        <v>340</v>
       </c>
       <c r="B331">
         <v>9.12878496809609</v>
@@ -8063,9 +9468,9 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>17</v>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A332" t="s">
+        <v>341</v>
       </c>
       <c r="B332">
         <v>9.1292686659820905</v>
@@ -8086,9 +9491,9 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>18</v>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A333" t="s">
+        <v>342</v>
       </c>
       <c r="B333">
         <v>9.1381124625349504</v>
@@ -8109,9 +9514,9 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>19</v>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A334" t="s">
+        <v>343</v>
       </c>
       <c r="B334">
         <v>9.1365128966026408</v>
@@ -8132,9 +9537,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>20</v>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A335" t="s">
+        <v>344</v>
       </c>
       <c r="B335">
         <v>9.1397453932290595</v>
@@ -8155,9 +9560,9 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>21</v>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A336" t="s">
+        <v>345</v>
       </c>
       <c r="B336">
         <v>9.1465710058430503</v>
@@ -8178,9 +9583,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>22</v>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A337" t="s">
+        <v>346</v>
       </c>
       <c r="B337">
         <v>9.1494236469830206</v>
@@ -8201,9 +9606,9 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>23</v>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A338" t="s">
+        <v>347</v>
       </c>
       <c r="B338">
         <v>9.1482809616490695</v>
@@ -8224,9 +9629,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>12</v>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A339" t="s">
+        <v>348</v>
       </c>
       <c r="B339">
         <v>9.1487413783511808</v>
@@ -8247,9 +9652,9 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>13</v>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
+        <v>349</v>
       </c>
       <c r="B340">
         <v>9.1503361802781704</v>
@@ -8270,9 +9675,9 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>14</v>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
+        <v>350</v>
       </c>
       <c r="B341">
         <v>9.1507809573688004</v>
@@ -8293,9 +9698,9 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>15</v>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A342" t="s">
+        <v>351</v>
       </c>
       <c r="B342">
         <v>9.1556896422312803</v>
@@ -8316,9 +9721,9 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>16</v>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A343" t="s">
+        <v>352</v>
       </c>
       <c r="B343">
         <v>9.1548220861318601</v>
@@ -8339,9 +9744,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>17</v>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A344" t="s">
+        <v>353</v>
       </c>
       <c r="B344">
         <v>9.1571078194952005</v>
@@ -8362,9 +9767,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>18</v>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A345" t="s">
+        <v>354</v>
       </c>
       <c r="B345">
         <v>9.1593547895036203</v>
@@ -8385,9 +9790,9 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>19</v>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A346" t="s">
+        <v>355</v>
       </c>
       <c r="B346">
         <v>9.1593288190536697</v>
@@ -8408,9 +9813,9 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>20</v>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>356</v>
       </c>
       <c r="B347">
         <v>9.1635316768297503</v>
@@ -8431,9 +9836,9 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>21</v>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>357</v>
       </c>
       <c r="B348">
         <v>9.1701807006756404</v>
@@ -8454,9 +9859,9 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>22</v>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A349" t="s">
+        <v>358</v>
       </c>
       <c r="B349">
         <v>9.1738407554232602</v>
@@ -8477,9 +9882,9 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>23</v>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>359</v>
       </c>
       <c r="B350">
         <v>9.1779571451651591</v>
@@ -8500,9 +9905,9 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>12</v>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A351" t="s">
+        <v>360</v>
       </c>
       <c r="B351">
         <v>9.1809215831712994</v>
@@ -8523,9 +9928,9 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>13</v>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
+        <v>361</v>
       </c>
       <c r="B352">
         <v>9.1812552381640309</v>
@@ -8546,9 +9951,9 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>14</v>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
+        <v>362</v>
       </c>
       <c r="B353">
         <v>9.1890518724404</v>
@@ -8569,9 +9974,9 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>15</v>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
+        <v>363</v>
       </c>
       <c r="B354">
         <v>9.1933862410912699</v>
@@ -8592,9 +9997,9 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>16</v>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>364</v>
       </c>
       <c r="B355">
         <v>9.1972725258932808</v>
@@ -8615,9 +10020,9 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>17</v>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>365</v>
       </c>
       <c r="B356">
         <v>9.20130371490397</v>
@@ -8638,9 +10043,9 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>18</v>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>366</v>
       </c>
       <c r="B357">
         <v>9.2009013397436004</v>
@@ -8661,9 +10066,9 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>19</v>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A358" t="s">
+        <v>367</v>
       </c>
       <c r="B358">
         <v>9.2036465247867394</v>
@@ -8684,9 +10089,9 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>20</v>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>368</v>
       </c>
       <c r="B359">
         <v>9.20506258673751</v>
@@ -8707,9 +10112,9 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>21</v>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
+        <v>369</v>
       </c>
       <c r="B360">
         <v>9.2103433719716801</v>
@@ -8730,9 +10135,9 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>22</v>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>370</v>
       </c>
       <c r="B361">
         <v>9.2135832362036201</v>
@@ -8753,9 +10158,9 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>23</v>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A362" t="s">
+        <v>371</v>
       </c>
       <c r="B362">
         <v>9.2195269191416305</v>
@@ -8776,9 +10181,9 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>12</v>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>372</v>
       </c>
       <c r="B363">
         <v>9.2189040369019004</v>
@@ -8799,9 +10204,9 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>13</v>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>373</v>
       </c>
       <c r="B364">
         <v>9.21697222454811</v>
@@ -8822,9 +10227,9 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>14</v>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A365" t="s">
+        <v>374</v>
       </c>
       <c r="B365">
         <v>9.2178279400438097</v>
@@ -8845,9 +10250,9 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
-        <v>15</v>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A366" t="s">
+        <v>375</v>
       </c>
       <c r="B366">
         <v>9.2183125118555704</v>
@@ -8868,9 +10273,9 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>16</v>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
+        <v>376</v>
       </c>
       <c r="B367">
         <v>9.2211685263404206</v>
@@ -8891,9 +10296,9 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>17</v>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A368" t="s">
+        <v>377</v>
       </c>
       <c r="B368">
         <v>9.2246761282248002</v>
@@ -8914,9 +10319,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>18</v>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A369" t="s">
+        <v>378</v>
       </c>
       <c r="B369">
         <v>9.2219491733411907</v>
@@ -8937,9 +10342,9 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
-        <v>19</v>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A370" t="s">
+        <v>379</v>
       </c>
       <c r="B370">
         <v>9.2323459464915398</v>
@@ -8960,9 +10365,9 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>20</v>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A371" t="s">
+        <v>380</v>
       </c>
       <c r="B371">
         <v>9.23540761974788</v>
@@ -8983,9 +10388,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>21</v>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>381</v>
       </c>
       <c r="B372">
         <v>9.2344485357608406</v>
@@ -9006,9 +10411,9 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>22</v>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A373" t="s">
+        <v>382</v>
       </c>
       <c r="B373">
         <v>9.2366159329935797</v>
@@ -9029,9 +10434,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>23</v>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A374" t="s">
+        <v>383</v>
       </c>
       <c r="B374">
         <v>9.23990410430266</v>
@@ -9052,9 +10457,9 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>12</v>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A375" t="s">
+        <v>384</v>
       </c>
       <c r="B375">
         <v>9.2353441488328603</v>
@@ -9075,9 +10480,9 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>13</v>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A376" t="s">
+        <v>385</v>
       </c>
       <c r="B376">
         <v>9.2477641128876709</v>
@@ -9098,9 +10503,9 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>14</v>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A377" t="s">
+        <v>386</v>
       </c>
       <c r="B377">
         <v>9.2474127984439392</v>
@@ -9121,9 +10526,9 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>15</v>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
+        <v>387</v>
       </c>
       <c r="B378">
         <v>9.2548229030301794</v>
@@ -9144,9 +10549,9 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>16</v>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A379" t="s">
+        <v>388</v>
       </c>
       <c r="B379">
         <v>9.2606533845945194</v>
@@ -9167,9 +10572,9 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>17</v>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A380" t="s">
+        <v>389</v>
       </c>
       <c r="B380">
         <v>9.2669882291709307</v>
@@ -9190,9 +10595,9 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>18</v>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A381" t="s">
+        <v>390</v>
       </c>
       <c r="B381">
         <v>9.2650060670726404</v>
@@ -9213,9 +10618,9 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>19</v>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A382" t="s">
+        <v>391</v>
       </c>
       <c r="B382">
         <v>9.2698044005647695</v>
@@ -9236,9 +10641,9 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>20</v>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A383" t="s">
+        <v>392</v>
       </c>
       <c r="B383">
         <v>9.2752896974720898</v>
@@ -9259,9 +10664,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>21</v>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A384" t="s">
+        <v>393</v>
       </c>
       <c r="B384">
         <v>9.2758033687794104</v>
@@ -9282,9 +10687,9 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>22</v>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A385" t="s">
+        <v>394</v>
       </c>
       <c r="B385">
         <v>9.2817314295148101</v>
@@ -9305,9 +10710,9 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>23</v>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A386" t="s">
+        <v>395</v>
       </c>
       <c r="B386">
         <v>9.2841163740339301</v>
@@ -9328,9 +10733,9 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>12</v>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A387" t="s">
+        <v>396</v>
       </c>
       <c r="B387">
         <v>9.2811370542844305</v>
@@ -9351,9 +10756,9 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>13</v>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A388" t="s">
+        <v>397</v>
       </c>
       <c r="B388">
         <v>9.2886547672856601</v>
@@ -9374,9 +10779,9 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>14</v>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A389" t="s">
+        <v>398</v>
       </c>
       <c r="B389">
         <v>9.2945936654478594</v>
@@ -9397,9 +10802,9 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>15</v>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A390" t="s">
+        <v>399</v>
       </c>
       <c r="B390">
         <v>9.2979563902167808</v>
@@ -9420,9 +10825,9 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>16</v>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A391" t="s">
+        <v>400</v>
       </c>
       <c r="B391">
         <v>9.3039925844756208</v>
@@ -9443,9 +10848,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
-        <v>17</v>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A392" t="s">
+        <v>401</v>
       </c>
       <c r="B392">
         <v>9.3073884534814102</v>
@@ -9466,9 +10871,9 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>18</v>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A393" t="s">
+        <v>402</v>
       </c>
       <c r="B393">
         <v>9.3119982650794206</v>
@@ -9489,9 +10894,9 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>19</v>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A394" t="s">
+        <v>403</v>
       </c>
       <c r="B394">
         <v>9.3163885786203497</v>
@@ -9512,9 +10917,9 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
-        <v>20</v>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A395" t="s">
+        <v>404</v>
       </c>
       <c r="B395">
         <v>9.3189434735653496</v>
@@ -9535,9 +10940,9 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
-        <v>21</v>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A396" t="s">
+        <v>405</v>
       </c>
       <c r="B396">
         <v>9.3204265103697104</v>
@@ -9558,9 +10963,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
-        <v>22</v>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A397" t="s">
+        <v>406</v>
       </c>
       <c r="B397">
         <v>9.3242274111960501</v>
@@ -9581,9 +10986,9 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>23</v>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A398" t="s">
+        <v>407</v>
       </c>
       <c r="B398">
         <v>9.3258632901568106</v>
@@ -9604,9 +11009,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>12</v>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A399" t="s">
+        <v>408</v>
       </c>
       <c r="B399">
         <v>9.3313334242342894</v>
@@ -9627,9 +11032,9 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>13</v>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A400" t="s">
+        <v>409</v>
       </c>
       <c r="B400">
         <v>9.3333726506623904</v>
@@ -9650,9 +11055,9 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>14</v>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A401" t="s">
+        <v>410</v>
       </c>
       <c r="B401">
         <v>9.3353523305612303</v>
@@ -9673,9 +11078,9 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
-        <v>15</v>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A402" t="s">
+        <v>411</v>
       </c>
       <c r="B402">
         <v>9.3394413089853803</v>
@@ -9696,9 +11101,9 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
-        <v>16</v>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A403" t="s">
+        <v>412</v>
       </c>
       <c r="B403">
         <v>9.3462070637906702</v>
@@ -9719,9 +11124,9 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
-        <v>17</v>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A404" t="s">
+        <v>413</v>
       </c>
       <c r="B404">
         <v>9.3433630127084104</v>
@@ -9742,9 +11147,9 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>18</v>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A405" t="s">
+        <v>414</v>
       </c>
       <c r="B405">
         <v>9.3432675653591009</v>
@@ -9765,9 +11170,9 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
-        <v>19</v>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A406" t="s">
+        <v>415</v>
       </c>
       <c r="B406">
         <v>9.3622063681859995</v>
@@ -9788,9 +11193,9 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
-        <v>20</v>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A407" t="s">
+        <v>416</v>
       </c>
       <c r="B407">
         <v>9.3624251338351492</v>
@@ -9811,9 +11216,9 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>21</v>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A408" t="s">
+        <v>417</v>
       </c>
       <c r="B408">
         <v>9.3704695145565609</v>
@@ -9834,9 +11239,9 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>22</v>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
+        <v>418</v>
       </c>
       <c r="B409">
         <v>9.3714565233406102</v>
@@ -9857,9 +11262,9 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
-        <v>23</v>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>419</v>
       </c>
       <c r="B410">
         <v>9.3749104248314907</v>
@@ -9880,9 +11285,9 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>12</v>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>420</v>
       </c>
       <c r="B411">
         <v>9.3786497906854507</v>
@@ -9903,9 +11308,9 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
-        <v>13</v>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>421</v>
       </c>
       <c r="B412">
         <v>9.3822729547771306</v>
@@ -9926,9 +11331,9 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
-        <v>14</v>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>422</v>
       </c>
       <c r="B413">
         <v>9.3838225967291695</v>
@@ -9949,9 +11354,9 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
-        <v>15</v>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>423</v>
       </c>
       <c r="B414">
         <v>9.3853692894989305</v>
@@ -9972,9 +11377,9 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
-        <v>16</v>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>424</v>
       </c>
       <c r="B415">
         <v>9.3921734144664502</v>
@@ -9995,9 +11400,9 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
-        <v>17</v>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>425</v>
       </c>
       <c r="B416">
         <v>9.3923413849014405</v>
@@ -10018,9 +11423,9 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
-        <v>18</v>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>426</v>
       </c>
       <c r="B417">
         <v>9.3994591369871507</v>
@@ -10041,9 +11446,9 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
-        <v>19</v>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>427</v>
       </c>
       <c r="B418">
         <v>9.4046584502252699</v>
@@ -10064,9 +11469,9 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
-        <v>20</v>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>428</v>
       </c>
       <c r="B419">
         <v>9.4037362514701108</v>
@@ -10087,9 +11492,9 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
-        <v>21</v>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>429</v>
       </c>
       <c r="B420">
         <v>9.4159968843888606</v>
@@ -10110,9 +11515,9 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
-        <v>22</v>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>430</v>
       </c>
       <c r="B421">
         <v>9.4196912254467495</v>
@@ -10133,9 +11538,9 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
-        <v>23</v>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>431</v>
       </c>
       <c r="B422">
         <v>9.4236204814862603</v>
@@ -10156,9 +11561,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
-        <v>12</v>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>432</v>
       </c>
       <c r="B423">
         <v>9.4198902270426004</v>
@@ -10179,9 +11584,9 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
-        <v>13</v>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A424" t="s">
+        <v>433</v>
       </c>
       <c r="B424">
         <v>9.4212818122100099</v>
@@ -10202,9 +11607,9 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
-        <v>14</v>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
+        <v>434</v>
       </c>
       <c r="B425">
         <v>9.4267389131677106</v>
@@ -10225,9 +11630,9 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
-        <v>15</v>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>435</v>
       </c>
       <c r="B426">
         <v>9.4375939001527005</v>
@@ -10248,9 +11653,9 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
-        <v>16</v>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>436</v>
       </c>
       <c r="B427">
         <v>9.4423542136840393</v>
@@ -10271,9 +11676,9 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
-        <v>17</v>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>437</v>
       </c>
       <c r="B428">
         <v>9.4440873248068797</v>
@@ -10294,9 +11699,9 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
-        <v>18</v>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>438</v>
       </c>
       <c r="B429">
         <v>9.4423310945996306</v>
@@ -10317,9 +11722,9 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
-        <v>19</v>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>439</v>
       </c>
       <c r="B430">
         <v>9.4402456035190596</v>
@@ -10340,9 +11745,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
-        <v>20</v>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>440</v>
       </c>
       <c r="B431">
         <v>9.4452948824966008</v>
@@ -10363,9 +11768,9 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
-        <v>21</v>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>441</v>
       </c>
       <c r="B432">
         <v>9.4460332018720301</v>
@@ -10386,9 +11791,9 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>22</v>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>442</v>
       </c>
       <c r="B433">
         <v>9.4488869996810507</v>
@@ -10409,9 +11814,9 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
-        <v>23</v>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>443</v>
       </c>
       <c r="B434">
         <v>9.4488939107805408</v>
@@ -10432,9 +11837,9 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
-        <v>12</v>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>444</v>
       </c>
       <c r="B435">
         <v>9.4449655516039801</v>
@@ -10455,9 +11860,9 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
-        <v>13</v>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>445</v>
       </c>
       <c r="B436">
         <v>9.4436404776305096</v>
@@ -10478,9 +11883,9 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>14</v>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>446</v>
       </c>
       <c r="B437">
         <v>9.4466093049645394</v>
@@ -10501,9 +11906,9 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
-        <v>15</v>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>447</v>
       </c>
       <c r="B438">
         <v>9.4512754355320503</v>
@@ -10524,9 +11929,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
-        <v>16</v>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>448</v>
       </c>
       <c r="B439">
         <v>9.4508060319364908</v>
@@ -10547,9 +11952,9 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>17</v>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>449</v>
       </c>
       <c r="B440">
         <v>9.4490110211700404</v>
@@ -10570,9 +11975,9 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
-        <v>18</v>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>450</v>
       </c>
       <c r="B441">
         <v>9.4463802920912894</v>
@@ -10593,9 +11998,9 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
-        <v>19</v>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>451</v>
       </c>
       <c r="B442">
         <v>9.4473382308288301</v>
@@ -10616,9 +12021,9 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
-        <v>20</v>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>452</v>
       </c>
       <c r="B443">
         <v>9.4482280831838796</v>
@@ -10639,9 +12044,9 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
-        <v>21</v>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>453</v>
       </c>
       <c r="B444">
         <v>9.4491030535216201</v>
@@ -10662,9 +12067,9 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
-        <v>22</v>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>454</v>
       </c>
       <c r="B445">
         <v>9.4486989250749396</v>
@@ -10685,9 +12090,9 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
-        <v>23</v>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>455</v>
       </c>
       <c r="B446">
         <v>9.4514956474843608</v>
@@ -10708,9 +12113,9 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
-        <v>12</v>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>456</v>
       </c>
       <c r="B447">
         <v>9.4577489291529595</v>
@@ -10731,9 +12136,9 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
-        <v>13</v>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>457</v>
       </c>
       <c r="B448">
         <v>9.4578104700575807</v>
@@ -10754,9 +12159,9 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
-        <v>14</v>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
+        <v>458</v>
       </c>
       <c r="B449">
         <v>9.4617966601944907</v>
@@ -10777,9 +12182,9 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
-        <v>15</v>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
+        <v>459</v>
       </c>
       <c r="B450">
         <v>9.4616354126247106</v>
@@ -10800,9 +12205,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
-        <v>16</v>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
+        <v>460</v>
       </c>
       <c r="B451">
         <v>9.4627770933616304</v>
@@ -10823,9 +12228,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
-        <v>17</v>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>461</v>
       </c>
       <c r="B452">
         <v>9.4692854106247299</v>
@@ -10846,9 +12251,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
-        <v>18</v>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
+        <v>462</v>
       </c>
       <c r="B453">
         <v>9.4683209320363098</v>
@@ -10869,9 +12274,9 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
-        <v>19</v>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A454" t="s">
+        <v>463</v>
       </c>
       <c r="B454">
         <v>9.4691923131437399</v>
@@ -10892,9 +12297,9 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
-        <v>20</v>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
+        <v>464</v>
       </c>
       <c r="B455">
         <v>9.4705903667961007</v>
@@ -10915,9 +12320,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
-        <v>21</v>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A456" t="s">
+        <v>465</v>
       </c>
       <c r="B456">
         <v>9.4688125945729507</v>
@@ -10938,9 +12343,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
-        <v>22</v>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A457" t="s">
+        <v>466</v>
       </c>
       <c r="B457">
         <v>9.4725283793728501</v>
@@ -10961,9 +12366,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
-        <v>23</v>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A458" t="s">
+        <v>467</v>
       </c>
       <c r="B458">
         <v>9.4681936580314794</v>
@@ -10984,9 +12389,9 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
-        <v>12</v>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A459" t="s">
+        <v>468</v>
       </c>
       <c r="B459">
         <v>9.4718210408033805</v>
@@ -11007,9 +12412,9 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
-        <v>13</v>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A460" t="s">
+        <v>469</v>
       </c>
       <c r="B460">
         <v>9.4752235704946006</v>
@@ -11030,9 +12435,9 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
-        <v>14</v>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A461" t="s">
+        <v>470</v>
       </c>
       <c r="B461">
         <v>9.4776534661453393</v>
@@ -11053,9 +12458,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
-        <v>15</v>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A462" t="s">
+        <v>471</v>
       </c>
       <c r="B462">
         <v>9.4785244729095002</v>
@@ -11076,9 +12481,9 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
-        <v>16</v>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A463" t="s">
+        <v>472</v>
       </c>
       <c r="B463">
         <v>9.4846336132073201</v>
@@ -11099,9 +12504,9 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>17</v>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A464" t="s">
+        <v>473</v>
       </c>
       <c r="B464">
         <v>9.4897520545908698</v>
@@ -11122,9 +12527,9 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
-        <v>18</v>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A465" t="s">
+        <v>474</v>
       </c>
       <c r="B465">
         <v>9.498012249376</v>
@@ -11145,9 +12550,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
-        <v>19</v>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A466" t="s">
+        <v>475</v>
       </c>
       <c r="B466">
         <v>9.4993182327814996</v>
@@ -11168,9 +12573,9 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
-        <v>20</v>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A467" t="s">
+        <v>476</v>
       </c>
       <c r="B467">
         <v>9.5058552537258691</v>
@@ -11191,9 +12596,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
-        <v>21</v>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A468" t="s">
+        <v>477</v>
       </c>
       <c r="B468">
         <v>9.5080232611354099</v>
@@ -11214,9 +12619,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
-        <v>22</v>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A469" t="s">
+        <v>478</v>
       </c>
       <c r="B469">
         <v>9.5146335489348903</v>
@@ -11237,9 +12642,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
-        <v>23</v>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A470" t="s">
+        <v>479</v>
       </c>
       <c r="B470">
         <v>9.5143697671170404</v>
